--- a/64KB.xlsx
+++ b/64KB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Script\Data\64 KB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Honours Project\Encryption algorithms performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC121DF5-335F-4333-BD1C-F89C896026AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878983DA-BD72-44B2-B547-F071D301D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="2775" windowWidth="16515" windowHeight="11745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="2640" windowWidth="16515" windowHeight="11745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference" sheetId="2" r:id="rId1"/>
@@ -213,9 +213,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -294,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,23 +340,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +681,7 @@
       </c>
     </row>
     <row r="6" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -714,7 +710,7 @@
       </c>
     </row>
     <row r="7" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -741,7 +737,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,7 +764,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
@@ -795,7 +791,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
@@ -822,7 +818,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,7 +845,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -878,7 +874,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -905,7 +901,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
@@ -946,7 +942,7 @@
   <dimension ref="B3:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +983,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1010,12 +1006,12 @@
       <c r="H4" s="14">
         <v>64</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1036,10 +1032,10 @@
       <c r="H5" s="14">
         <v>64</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,10 +1056,10 @@
       <c r="H6" s="14">
         <v>64</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1084,10 +1080,10 @@
       <c r="H7" s="14">
         <v>64</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1108,10 +1104,10 @@
       <c r="H8" s="14">
         <v>64</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1134,10 +1130,10 @@
       <c r="H9" s="14">
         <v>64</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1158,10 +1154,10 @@
       <c r="H10" s="14">
         <v>64</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1182,27 +1178,27 @@
       <c r="H11" s="14">
         <v>64</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="12">
-        <v>2.1633400000000001E-2</v>
+        <v>4.2321999999999999E-2</v>
       </c>
       <c r="E12" s="13">
-        <v>1.44452</v>
+        <v>1.4767999999999999</v>
       </c>
       <c r="F12" s="12">
-        <v>0.92930999999999997</v>
+        <v>1.865529</v>
       </c>
       <c r="G12" s="13">
-        <v>3.36271E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="H12" s="14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>32</v>
@@ -1233,7 +1229,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9">
         <v>9.5050700000000002E-2</v>
       </c>
@@ -1249,7 +1245,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="9">
         <v>4.0345499999999999E-2</v>
       </c>
@@ -1265,7 +1261,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="9">
         <v>3.259976</v>
       </c>
@@ -1281,7 +1277,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="9">
         <v>0.200963</v>
       </c>
@@ -1297,7 +1293,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="9">
         <v>0.192158</v>
       </c>
@@ -1313,7 +1309,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9">
         <v>7.7101199999999995E-2</v>
       </c>
@@ -1329,7 +1325,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9">
         <v>9.7596199999999994E-2</v>
       </c>
@@ -1345,7 +1341,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9">
         <v>0.42498000000000002</v>
       </c>
@@ -1374,7 +1370,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,12 +1392,12 @@
       <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1410,80 +1406,80 @@
       <c r="D4" s="1">
         <v>64</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>286752</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <f t="shared" ref="F4:F10" si="0">E4-3*D4*1024</f>
         <v>90144</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>64</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>286176</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>89568</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>64</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>270400</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>73792</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>64</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>285568</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>88960</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>64</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>285568</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>88960</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1492,60 +1488,59 @@
       <c r="D9" s="1">
         <v>64</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>280080</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>83472</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>64</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>285568</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>88960</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>64</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>285584</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <f>E11-3*D11*1024</f>
         <v>88976</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>32</v>
-      </c>
-      <c r="E12" s="20">
-        <v>196232</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E12-D12*1024</f>
-        <v>163464</v>
+        <v>64</v>
+      </c>
+      <c r="E12" s="17">
+        <v>289784</v>
+      </c>
+      <c r="F12" s="17">
+        <v>289784</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1563,7 @@
   <dimension ref="A4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1583,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1599,7 +1594,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1608,7 +1603,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1612,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1621,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1630,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1646,7 +1641,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1650,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1664,12 +1659,12 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
-        <v>0.85982800000000004</v>
+      <c r="C13">
+        <v>1.6345943999999999</v>
       </c>
     </row>
   </sheetData>
